--- a/logs/submissions.xlsx
+++ b/logs/submissions.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -843,6 +843,69 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:45:22 UTC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mukul Dhote</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>khaire.abhijit@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>+1 7367282424</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>gljtkgk4tkg4</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6asthama, namoAbhiSwasm</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>credentialing</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>fwewefew</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Ārogyaṁ paramaṁ bhāgyaṁ."
+</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
